--- a/data/helix_counts/table_s7_combined.xlsx
+++ b/data/helix_counts/table_s7_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/DEET-hydrolase/data/helix_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC98A1FE-616D-5C46-820B-ECFC503EAFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{617D65CD-E4A8-FB43-AD15-5948CC73BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="600" windowWidth="28520" windowHeight="12640"/>
+    <workbookView xWindow="240" yWindow="600" windowWidth="28520" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="table_s7_combined" sheetId="1" r:id="rId1"/>
@@ -1472,12 +1472,12 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>202</v>
@@ -1504,17 +1504,17 @@
       <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1524,17 +1524,17 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1544,17 +1544,17 @@
       <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1564,17 +1564,17 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1584,17 +1584,17 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1604,17 +1604,17 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1624,17 +1624,17 @@
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1644,17 +1644,17 @@
       <c r="A9" t="s">
         <v>184</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -1664,17 +1664,17 @@
       <c r="A10" t="s">
         <v>190</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1684,17 +1684,17 @@
       <c r="A11" t="s">
         <v>139</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
         <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1704,17 +1704,17 @@
       <c r="A12" t="s">
         <v>154</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1724,17 +1724,17 @@
       <c r="A13" t="s">
         <v>175</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1744,17 +1744,17 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
         <v>293</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1764,17 +1764,17 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1784,17 +1784,17 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
         <v>183</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1804,17 +1804,17 @@
       <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
         <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1824,17 +1824,17 @@
       <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
         <v>143</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1844,17 +1844,17 @@
       <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
         <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1864,17 +1864,17 @@
       <c r="A20" t="s">
         <v>160</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
         <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1884,17 +1884,17 @@
       <c r="A21" t="s">
         <v>163</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
         <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1904,17 +1904,17 @@
       <c r="A22" t="s">
         <v>181</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
         <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22">
-        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1924,17 +1924,17 @@
       <c r="A23" t="s">
         <v>157</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
         <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1944,17 +1944,17 @@
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
         <v>178</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1964,17 +1964,17 @@
       <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
@@ -1984,17 +1984,17 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
         <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -2004,17 +2004,17 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
         <v>189</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -2024,17 +2024,17 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
         <v>179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -2044,17 +2044,17 @@
       <c r="A29" t="s">
         <v>115</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
         <v>141</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29">
-        <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2064,17 +2064,17 @@
       <c r="A30" t="s">
         <v>136</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
         <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30">
-        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2084,17 +2084,17 @@
       <c r="A31" t="s">
         <v>151</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
         <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -2104,17 +2104,17 @@
       <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
         <v>127</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32">
-        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -2124,17 +2124,17 @@
       <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33">
         <v>204</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -2144,17 +2144,17 @@
       <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
         <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -2164,17 +2164,17 @@
       <c r="A35" t="s">
         <v>118</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
         <v>139</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35">
-        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2184,17 +2184,17 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
         <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36">
-        <v>13</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2204,17 +2204,17 @@
       <c r="A37" t="s">
         <v>166</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
         <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37">
-        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -2224,17 +2224,17 @@
       <c r="A38" t="s">
         <v>112</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
         <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38">
-        <v>13</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2244,17 +2244,17 @@
       <c r="A39" t="s">
         <v>127</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
         <v>139</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -2264,17 +2264,17 @@
       <c r="A40" t="s">
         <v>142</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
         <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -2284,17 +2284,17 @@
       <c r="A41" t="s">
         <v>178</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
         <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41">
-        <v>13</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2304,17 +2304,17 @@
       <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
         <v>156</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42">
-        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2324,17 +2324,17 @@
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
         <v>284</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2344,17 +2344,17 @@
       <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
         <v>186</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2364,17 +2364,17 @@
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
         <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2384,17 +2384,17 @@
       <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
         <v>147</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2404,17 +2404,17 @@
       <c r="A47" t="s">
         <v>88</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
         <v>150</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -2424,17 +2424,17 @@
       <c r="A48" t="s">
         <v>169</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
         <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -2444,17 +2444,17 @@
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
         <v>293</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>15</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -2464,17 +2464,17 @@
       <c r="A50" t="s">
         <v>121</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
         <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -2484,17 +2484,17 @@
       <c r="A51" t="s">
         <v>40</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
         <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -2504,17 +2504,17 @@
       <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
         <v>135</v>
-      </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52">
-        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -2524,17 +2524,17 @@
       <c r="A53" t="s">
         <v>100</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
         <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53">
-        <v>16</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -2544,17 +2544,17 @@
       <c r="A54" t="s">
         <v>97</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
         <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -2564,17 +2564,17 @@
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
         <v>193</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55">
-        <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2584,17 +2584,17 @@
       <c r="A56" t="s">
         <v>130</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
         <v>138</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -2604,17 +2604,17 @@
       <c r="A57" t="s">
         <v>103</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
         <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57">
-        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -2624,17 +2624,17 @@
       <c r="A58" t="s">
         <v>193</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
         <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58">
-        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2644,17 +2644,17 @@
       <c r="A59" t="s">
         <v>199</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
         <v>108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59">
-        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -2664,17 +2664,17 @@
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60">
         <v>176</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60">
-        <v>19</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2684,17 +2684,17 @@
       <c r="A61" t="s">
         <v>85</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
         <v>155</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
@@ -2704,17 +2704,17 @@
       <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
         <v>160</v>
-      </c>
-      <c r="C62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62">
-        <v>20</v>
       </c>
       <c r="F62" t="s">
         <v>30</v>
@@ -2724,17 +2724,17 @@
       <c r="A63" t="s">
         <v>133</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
         <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63">
-        <v>21</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -2744,17 +2744,17 @@
       <c r="A64" t="s">
         <v>187</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64">
         <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64">
-        <v>23</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -2764,17 +2764,17 @@
       <c r="A65" t="s">
         <v>124</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
         <v>139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65">
-        <v>25</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
@@ -2784,17 +2784,17 @@
       <c r="A66" t="s">
         <v>196</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66">
         <v>112</v>
-      </c>
-      <c r="C66" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66">
-        <v>25</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
@@ -2802,8 +2802,20 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F68">
-    <sortCondition ref="E1:E68"/>
+    <sortCondition ref="D1:D68"/>
   </sortState>
+  <conditionalFormatting sqref="D2:D66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>